--- a/code/src/org/ebiquity/data/permAnalysis/results.xlsx
+++ b/code/src/org/ebiquity/data/permAnalysis/results.xlsx
@@ -1,39 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28303"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AndroidAnalytics\code\src\org\ebiquity\data\permAnalysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prajit/Work/AndroidAnalytics/code/src/org/ebiquity/data/permAnalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8160"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15480" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="results" sheetId="1" r:id="rId1"/>
+    <sheet name="Score" sheetId="5" r:id="rId1"/>
+    <sheet name="Recall" sheetId="4" r:id="rId2"/>
+    <sheet name="Precision" sheetId="3" r:id="rId3"/>
+    <sheet name="FScore" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="12">
   <si>
     <t>AdaBoost</t>
-  </si>
-  <si>
-    <t>Fscore</t>
-  </si>
-  <si>
-    <t>Precision</t>
-  </si>
-  <si>
-    <t>Recall</t>
-  </si>
-  <si>
-    <t>Score</t>
   </si>
   <si>
     <t>Decision Tree</t>
@@ -62,12 +61,18 @@
   <si>
     <t>Random Forest</t>
   </si>
+  <si>
+    <t>Classifier</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,6 +207,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -500,7 +528,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -543,11 +571,20 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="48">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -576,11 +613,17 @@
     <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -602,6 +645,1076 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>FScore - Malware detection</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>FScore!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Value</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:separator>
+</c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>FScore!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Naive Bayes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dummy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RBF SVM</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Decision Tree</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>AdaBoost</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Linear SVM</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Logistic Regression</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Nearest Neighbors</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Neural Net</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>FScore!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.356749208</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.417484484</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.417484484</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.789463281</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.878124782</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.891549884</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.902711069</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.902751952</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.911880196</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.92403127</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1090616576"/>
+        <c:axId val="1023230832"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1090616576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1023230832"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1023230832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>FScore</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1090616576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -901,459 +2014,418 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>0.89154988405385704</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>0.89209621993127097</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.87938144329896895</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="C2">
-        <v>0.89246869373839699</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B4">
+        <v>0.57302405498281705</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="C3">
-        <v>0.89209621993127097</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B5">
+        <v>0.90309278350515398</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="C4">
-        <v>0.89209621993127097</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>0.87812478189136001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>0.88165440271097195</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>0.90292096219931195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>0.87938144329896895</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>0.47577319587628802</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8">
-        <v>0.87938144329896895</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.91185567010309199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>0.41748448353199202</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0.92405498281786902</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <v>0.32835656758895099</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0.80120274914089296</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11">
-        <v>0.57302405498281705</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12">
-        <v>0.57302405498281705</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>0.90271106866315198</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14">
-        <v>0.90328731927375705</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15">
-        <v>0.90309278350515398</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16">
-        <v>0.90309278350515398</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>0.90275195230984995</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18">
-        <v>0.90279944296662795</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19">
-        <v>0.90292096219931195</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20">
-        <v>0.90292096219931195</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
         <v>9</v>
       </c>
-      <c r="B21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>0.35674920750237499</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22">
-        <v>0.74575642574042</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23">
-        <v>0.47577319587628802</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24">
-        <v>0.47577319587628802</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25">
-        <v>0.91188019591932301</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26">
-        <v>0.91191134393192197</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27">
-        <v>0.91185567010309199</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28">
-        <v>0.91185567010309199</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>11</v>
-      </c>
-      <c r="B29" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29">
-        <v>0.92403127045661104</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>11</v>
-      </c>
-      <c r="B30" t="s">
-        <v>2</v>
-      </c>
-      <c r="C30">
-        <v>0.924015566301433</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>11</v>
-      </c>
-      <c r="B31" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31">
-        <v>0.92405498281786902</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>11</v>
-      </c>
-      <c r="B32" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32">
-        <v>0.92405498281786902</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>12</v>
-      </c>
-      <c r="B33" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33">
-        <v>0.78946328136353705</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C34">
-        <v>0.83327306295235903</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35">
-        <v>0.80120274914089296</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>12</v>
-      </c>
-      <c r="B36" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36">
-        <v>0.80120274914089296</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>13</v>
-      </c>
-      <c r="B37" t="s">
-        <v>1</v>
-      </c>
-      <c r="C37">
-        <v>0.41748448353199202</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38" t="s">
-        <v>2</v>
-      </c>
-      <c r="C38">
-        <v>0.32835656758895099</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>13</v>
-      </c>
-      <c r="B39" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39">
-        <v>0.57302405498281705</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>13</v>
-      </c>
-      <c r="B40" t="s">
-        <v>4</v>
-      </c>
-      <c r="C40">
+      <c r="B11">
         <v>0.57302405498281705</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.89209622</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.87938144299999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.57302405499999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.90309278400000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.90292096200000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.47577319600000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.91185567000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.924054983</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.80120274899999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.57302405499999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="A1:B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.89246869399999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.88165440299999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.32835656800000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.90328731900000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.90279944300000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.74575642600000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.91191134399999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.92401556600000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.83327306300000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.32835656800000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.33203125" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.35674920799999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.41748448399999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.41748448399999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.78946328099999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.87812478199999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.89154988400000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.90271106899999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.90275195200000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.91188019600000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.92403126999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:B11">
+    <sortCondition ref="B2:B11"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/code/src/org/ebiquity/data/permAnalysis/results.xlsx
+++ b/code/src/org/ebiquity/data/permAnalysis/results.xlsx
@@ -668,16 +668,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1920" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="Consolas" charset="0"/>
+                <a:ea typeface="Consolas" charset="0"/>
+                <a:cs typeface="Consolas" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
@@ -701,16 +701,16 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1920" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:latin typeface="Consolas" charset="0"/>
+              <a:ea typeface="Consolas" charset="0"/>
+              <a:cs typeface="Consolas" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -719,9 +719,19 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.271462208000699"/>
+          <c:y val="0.0738024737925723"/>
+          <c:w val="0.692531152052595"/>
+          <c:h val="0.817049208669276"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
-        <c:barDir val="col"/>
+        <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
@@ -740,10 +750,17 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent1">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
             </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -757,27 +774,23 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="lt1"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:latin typeface="Consolas" charset="0"/>
+                    <a:ea typeface="Consolas" charset="0"/>
+                    <a:cs typeface="Consolas" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="inEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -793,14 +806,13 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                    <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
                         </a:schemeClr>
                       </a:solidFill>
-                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -887,6 +899,7 @@
           </c:val>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -894,42 +907,28 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="1090616576"/>
-        <c:axId val="1023230832"/>
+        <c:gapWidth val="65"/>
+        <c:axId val="998848112"/>
+        <c:axId val="998849888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1090616576"/>
+        <c:axId val="998848112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
+        <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -941,22 +940,22 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="Consolas" charset="0"/>
+                <a:ea typeface="Consolas" charset="0"/>
+                <a:cs typeface="Consolas" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1023230832"/>
+        <c:crossAx val="998849888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -964,21 +963,33 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1023230832"/>
+        <c:axId val="998849888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                      <a:alpha val="42000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="36000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -987,20 +998,20 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:latin typeface="Consolas" charset="0"/>
+                    <a:ea typeface="Consolas" charset="0"/>
+                    <a:cs typeface="Consolas" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
@@ -1020,20 +1031,20 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:latin typeface="Consolas" charset="0"/>
+                  <a:ea typeface="Consolas" charset="0"/>
+                  <a:cs typeface="Consolas" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="en-US"/>
@@ -1046,14 +1057,8 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1062,22 +1067,22 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="Consolas" charset="0"/>
+                <a:ea typeface="Consolas" charset="0"/>
+                <a:cs typeface="Consolas" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1090616576"/>
+        <c:crossAx val="998848112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1094,14 +1099,30 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:round/>
@@ -1113,7 +1134,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1600" b="0" i="0">
+          <a:latin typeface="Consolas" charset="0"/>
+          <a:ea typeface="Consolas" charset="0"/>
+          <a:cs typeface="Consolas" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -1167,33 +1192,72 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="218">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="25000"/>
             <a:lumOff val="75000"/>
           </a:schemeClr>
@@ -1202,128 +1266,125 @@
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="31750" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -1347,21 +1408,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1371,23 +1430,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1396,17 +1454,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -1415,12 +1473,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
@@ -1434,64 +1492,177 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="50000"/>
             <a:lumOff val="50000"/>
           </a:schemeClr>
@@ -1499,96 +1670,18 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
   </cs:seriesLine>
   <cs:title>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1597,14 +1690,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1613,9 +1705,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1625,20 +1717,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1647,20 +1738,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln>
+        <a:noFill/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1670,14 +1755,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1692,10 +1771,10 @@
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>

--- a/code/src/org/ebiquity/data/permAnalysis/results.xlsx
+++ b/code/src/org/ebiquity/data/permAnalysis/results.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28303"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -668,16 +668,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1920" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1920" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="50" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="Consolas" charset="0"/>
-                <a:ea typeface="Consolas" charset="0"/>
-                <a:cs typeface="Consolas" charset="0"/>
+                <a:latin typeface="Optima" charset="0"/>
+                <a:ea typeface="Optima" charset="0"/>
+                <a:cs typeface="Optima" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
@@ -701,16 +701,16 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1920" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1920" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="50" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="Consolas" charset="0"/>
-              <a:ea typeface="Consolas" charset="0"/>
-              <a:cs typeface="Consolas" charset="0"/>
+              <a:latin typeface="Optima" charset="0"/>
+              <a:ea typeface="Optima" charset="0"/>
+              <a:cs typeface="Optima" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -724,9 +724,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.271462208000699"/>
+          <c:x val="0.221531556128299"/>
           <c:y val="0.0738024737925723"/>
-          <c:w val="0.692531152052595"/>
+          <c:w val="0.742461803924995"/>
           <c:h val="0.817049208669276"/>
         </c:manualLayout>
       </c:layout>
@@ -749,18 +749,12 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:alpha val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:alpha val="50000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:round/>
+              <a:miter lim="800000"/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -780,17 +774,20 @@
                 <a:pPr>
                   <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="Consolas" charset="0"/>
-                    <a:ea typeface="Consolas" charset="0"/>
-                    <a:cs typeface="Consolas" charset="0"/>
+                    <a:latin typeface="Optima" charset="0"/>
+                    <a:ea typeface="Optima" charset="0"/>
+                    <a:cs typeface="Optima" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="inEnd"/>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -806,13 +803,14 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525">
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
-                        <a:schemeClr val="dk1">
-                          <a:lumMod val="50000"/>
-                          <a:lumOff val="50000"/>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
+                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -899,7 +897,7 @@
           </c:val>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="inEnd"/>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -907,31 +905,39 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="65"/>
-        <c:axId val="998848112"/>
-        <c:axId val="998849888"/>
+        <c:gapWidth val="227"/>
+        <c:overlap val="-48"/>
+        <c:axId val="-1962599328"/>
+        <c:axId val="-1962597008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="998848112"/>
+        <c:axId val="-1962599328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -940,22 +946,22 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="Consolas" charset="0"/>
-                <a:ea typeface="Consolas" charset="0"/>
-                <a:cs typeface="Consolas" charset="0"/>
+                <a:latin typeface="Optima" charset="0"/>
+                <a:ea typeface="Optima" charset="0"/>
+                <a:cs typeface="Optima" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="998849888"/>
+        <c:crossAx val="-1962597008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -963,7 +969,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="998849888"/>
+        <c:axId val="-1962597008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -971,26 +977,13 @@
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="95000"/>
-                      <a:lumOff val="5000"/>
-                      <a:alpha val="42000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="0">
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="75000"/>
-                      <a:alpha val="36000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:round/>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -1004,14 +997,14 @@
                 <a:pPr>
                   <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="Consolas" charset="0"/>
-                    <a:ea typeface="Consolas" charset="0"/>
-                    <a:cs typeface="Consolas" charset="0"/>
+                    <a:latin typeface="Optima" charset="0"/>
+                    <a:ea typeface="Optima" charset="0"/>
+                    <a:cs typeface="Optima" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
@@ -1037,14 +1030,14 @@
               <a:pPr>
                 <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="Consolas" charset="0"/>
-                  <a:ea typeface="Consolas" charset="0"/>
-                  <a:cs typeface="Consolas" charset="0"/>
+                  <a:latin typeface="Optima" charset="0"/>
+                  <a:ea typeface="Optima" charset="0"/>
+                  <a:cs typeface="Optima" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="en-US"/>
@@ -1057,8 +1050,13 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1069,20 +1067,20 @@
             <a:pPr>
               <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="Consolas" charset="0"/>
-                <a:ea typeface="Consolas" charset="0"/>
-                <a:cs typeface="Consolas" charset="0"/>
+                <a:latin typeface="Optima" charset="0"/>
+                <a:ea typeface="Optima" charset="0"/>
+                <a:cs typeface="Optima" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="998848112"/>
+        <c:crossAx val="-1962599328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1099,30 +1097,14 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="lt1"/>
-        </a:gs>
-        <a:gs pos="39000">
-          <a:schemeClr val="lt1"/>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="lt1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="25000"/>
-          <a:lumOff val="75000"/>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:round/>
@@ -1135,9 +1117,9 @@
     <a:p>
       <a:pPr>
         <a:defRPr sz="1600" b="0" i="0">
-          <a:latin typeface="Consolas" charset="0"/>
-          <a:ea typeface="Consolas" charset="0"/>
-          <a:cs typeface="Consolas" charset="0"/>
+          <a:latin typeface="Optima" charset="0"/>
+          <a:ea typeface="Optima" charset="0"/>
+          <a:cs typeface="Optima" charset="0"/>
         </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
@@ -1192,74 +1174,47 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="218">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="224">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="lt1"/>
-          </a:gs>
-          <a:gs pos="39000">
-            <a:schemeClr val="lt1"/>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="lt1">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1272,58 +1227,56 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="bg1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-          <a:alpha val="75000"/>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="35000"/>
+          <a:lumOff val="65000"/>
         </a:schemeClr>
       </a:solidFill>
     </cs:spPr>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:defRPr sz="900"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
-    </cs:fillRef>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:alpha val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
+        <a:miter lim="800000"/>
       </a:ln>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
     <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
@@ -1332,18 +1285,11 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:alpha val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
+        <a:miter lim="800000"/>
       </a:ln>
     </cs:spPr>
   </cs:dataPoint3D>
@@ -1357,18 +1303,18 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="31750" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="85000"/>
-          </a:schemeClr>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
     <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
@@ -1377,11 +1323,12 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:alpha val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
   <cs:dataPointMarkerLayout symbol="circle" size="6"/>
@@ -1389,17 +1336,16 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="rnd">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointWireframe>
@@ -1408,17 +1354,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1435,17 +1381,18 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="50000"/>
-          <a:lumOff val="50000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1457,14 +1404,14 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -1476,11 +1423,11 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1503,26 +1450,13 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="95000"/>
-                <a:lumOff val="5000"/>
-                <a:alpha val="42000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1">
-                <a:lumMod val="75000"/>
-                <a:alpha val="36000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMajor>
@@ -1534,25 +1468,13 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="95000"/>
-                <a:lumOff val="5000"/>
-                <a:alpha val="42000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1">
-                <a:lumMod val="75000"/>
-                <a:alpha val="36000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -1564,14 +1486,14 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -1583,13 +1505,14 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -1598,22 +1521,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="95000"/>
-          <a:alpha val="39000"/>
-        </a:schemeClr>
-      </a:solidFill>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -1621,7 +1536,7 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -1634,22 +1549,11 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -1660,11 +1564,11 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1676,12 +1580,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+    <cs:defRPr sz="1800" b="0" kern="1200" cap="none" spc="50" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1697,6 +1601,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1705,9 +1610,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1723,13 +1628,14 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1738,14 +1644,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
-        <a:noFill/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
